--- a/Практическая №2.xlsx
+++ b/Практическая №2.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Toc518981409" localSheetId="0">Лист1!$B$77</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Общие значения</t>
   </si>
@@ -159,12 +162,6 @@
   </si>
   <si>
     <t>n2 (λ=*,**мкм)</t>
-  </si>
-  <si>
-    <t>Светоотра-жающая оболочка (n2) =</t>
-  </si>
-  <si>
-    <t>Сердечник</t>
   </si>
   <si>
     <t>SiO2</t>
@@ -317,17 +314,56 @@
     <t>Значение нормированной (характеристической) частоты</t>
   </si>
   <si>
-    <t>V =</t>
-  </si>
-  <si>
     <t>λ, мкм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Светоотра-жающая оболочка (n2) </t>
+  </si>
+  <si>
+    <t>2. Расчет числовой апературы световода</t>
+  </si>
+  <si>
+    <t>3. Расчет затухания световодов</t>
+  </si>
+  <si>
+    <t>tg δ</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Δ</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Сердечник (n1)</t>
+  </si>
+  <si>
+    <t>4.Расчет дисперсии оптического волокна</t>
+  </si>
+  <si>
+    <t>5.1 Определение длины регенерационного участка по затуханию оптического кабеля</t>
+  </si>
+  <si>
+    <t>П</t>
+  </si>
+  <si>
+    <t>5. Определение длины регенерационного участка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +441,21 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -706,19 +757,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -780,11 +818,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -814,120 +867,159 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,13 +1044,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>564216</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>184897</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1020,13 +1112,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>183931</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>860206</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1053,6 +1145,1062 @@
         <a:xfrm>
           <a:off x="183931" y="9130862"/>
           <a:ext cx="1727309" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98FA4A36-BAE1-4D39-A479-8B3426513838}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6677025"/>
+          <a:ext cx="2314575" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4" descr="Image110"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8505825"/>
+          <a:ext cx="2000250" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1309937</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{115AEECB-E9DD-C894-C78B-C39B56783BF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9267825"/>
+          <a:ext cx="2357687" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6" descr="Image117"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="38100" y="10048875"/>
+          <a:ext cx="2266950" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7" descr="Image120"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11553825"/>
+          <a:ext cx="2305050" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>592455</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>2276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C78FEB8-DA55-41F9-E49D-0007DCD98AD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4410075" y="9810750"/>
+          <a:ext cx="2392680" cy="221351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>598842</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>13111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDA821D-73E0-EECA-C15C-AAF978403838}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4391025" y="10220325"/>
+          <a:ext cx="1465617" cy="584611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>539115</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>98424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF99842-ED35-0FAB-2EB3-332709C8BA38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2533650" y="12792075"/>
+          <a:ext cx="2396490" cy="507999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11" descr="Image126"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="14268450"/>
+          <a:ext cx="1533525" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Рисунок 12" descr="Image127"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="914400" y="14773275"/>
+          <a:ext cx="1419225" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Рисунок 13" descr="Image128"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4524375" y="14154150"/>
+          <a:ext cx="619125" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14" descr="Image129"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4572000" y="14535150"/>
+          <a:ext cx="542925" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1256963</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>126404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Рисунок 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A838D0C4-2775-453B-8E47-53CE1A819DD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1171575" y="15240000"/>
+          <a:ext cx="1133138" cy="393104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Рисунок 16" descr="Image139"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2790825" y="15887700"/>
+          <a:ext cx="1495425" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Рисунок 17" descr="Image167"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2133600" y="17735550"/>
+          <a:ext cx="2238375" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1350,321 +2498,554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A21:G44"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:G36"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="13" style="13" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="13"/>
-    <col min="7" max="7" width="15.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="14.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="D21" s="14" t="s">
+      <c r="B1" s="35"/>
+      <c r="D1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B2" s="13">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E2" s="7">
         <v>1520</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="25">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="15">
+        <v>125</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="15">
+        <v>160</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="15">
+        <v>80</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="15">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19">
+        <v>622</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="42"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="20">
+        <v>1</v>
+      </c>
+      <c r="E16" s="20">
+        <v>2</v>
+      </c>
+      <c r="F16" s="20">
+        <v>3</v>
+      </c>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.69616630000000002</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.40794259999999999</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.89747940000000004</v>
+      </c>
+      <c r="G17" s="28">
+        <f>1+SUM(H17+I17+J17)</f>
+        <v>2.0862371499233179</v>
+      </c>
+      <c r="H17" s="43">
+        <f>D17*($G$2^2/($G$2^2-D18^2))</f>
+        <v>0.6975790752402482</v>
+      </c>
+      <c r="I17" s="43">
+        <f t="shared" ref="I17:J17" si="0">E17*($G$2^2/($G$2^2-E18^2))</f>
+        <v>0.41034243242244378</v>
+      </c>
+      <c r="J17" s="43">
+        <f>F17*($G$2^2/($G$2^2-F18^2))</f>
+        <v>-2.1684357739374101E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="4">
+        <v>6.8404300000000001E-2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.11624139999999999</v>
+      </c>
+      <c r="F18" s="4">
+        <v>9.8961609999999993</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+    </row>
+    <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0.70285540000000002</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0.41463070000000002</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0.89745399999999997</v>
+      </c>
+      <c r="G19" s="28">
+        <f>1+SUM(H19+I19+J19)</f>
+        <v>2.0997753896465805</v>
+      </c>
+      <c r="H19" s="43">
+        <f>D19*($G$2^2/($G$2^2-D20^2))</f>
+        <v>0.70447015867971952</v>
+      </c>
+      <c r="I19" s="43">
+        <f t="shared" ref="I19:J19" si="1">E19*($G$2^2/($G$2^2-E20^2))</f>
+        <v>0.41698897500670445</v>
+      </c>
+      <c r="J19" s="43">
+        <f t="shared" si="1"/>
+        <v>-2.1683744039843415E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="24">
+        <v>7.2772299999999998E-2</v>
+      </c>
+      <c r="E20" s="24">
+        <v>0.11430849999999999</v>
+      </c>
+      <c r="F20" s="24">
+        <v>9.8961609999999993</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="44">
+        <f>(PI()*B2/G2)*SQRT(G19-G17)</f>
+        <v>1.9960227048208057</v>
+      </c>
+      <c r="D24" s="45"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="50">
+        <f>SQRT(G19-G17)</f>
+        <v>0.11635394158885476</v>
+      </c>
+      <c r="D31" s="51"/>
+    </row>
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="52"/>
+      <c r="D32" s="53"/>
+    </row>
+    <row r="35" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="49">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="18">
-        <v>125</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="18">
-        <v>160</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="18">
-        <v>80</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="18">
-        <v>15</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="18">
-        <v>2</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="19">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="22">
-        <v>622</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-    </row>
-    <row r="32" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="33"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24">
-        <v>1</v>
-      </c>
-      <c r="E34" s="24">
-        <v>2</v>
-      </c>
-      <c r="F34" s="24">
-        <v>3</v>
-      </c>
-      <c r="G34" s="33"/>
-    </row>
-    <row r="35" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0.69616630000000002</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0.40794259999999999</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0.89747940000000004</v>
-      </c>
-      <c r="G35" s="35"/>
-    </row>
-    <row r="36" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="4">
-        <v>6.8404300000000001E-2</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0.11624139999999999</v>
-      </c>
-      <c r="F36" s="4">
-        <v>9.8961609999999993</v>
-      </c>
-      <c r="G36" s="37"/>
-    </row>
-    <row r="37" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="27">
-        <v>0.70285540000000002</v>
-      </c>
-      <c r="E37" s="27">
-        <v>0.41463070000000002</v>
-      </c>
-      <c r="F37" s="27">
-        <v>0.89745399999999997</v>
-      </c>
-      <c r="G37" s="35"/>
-    </row>
-    <row r="38" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="41">
-        <v>7.2772299999999998E-2</v>
-      </c>
-      <c r="E38" s="41">
-        <v>0.11430849999999999</v>
-      </c>
-      <c r="F38" s="41">
-        <v>9.8961609999999993</v>
-      </c>
-      <c r="G38" s="42"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="44"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="45"/>
-      <c r="D43" s="46"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
+    </row>
+    <row r="36" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="11">
+        <f>2.4*10^-12</f>
+        <v>2.3999999999999999E-12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="57">
+        <f>8.69*((PI()*G19*10^9)/G2)*F36</f>
+        <v>9.0512830063969513E-2</v>
+      </c>
+      <c r="E37" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="11">
+        <f>1.38*10^-23</f>
+        <v>1.3800000000000001E-23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E39" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="11">
+        <f>8.1*10^-23</f>
+        <v>8.1000000000000001E-23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="11">
+        <f>(G19-G17)/2*G19</f>
+        <v>1.4213631295021295E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="57">
+        <f>4.32*((8*PI()^3)/(3*G2^4))*(G19-1)*F37*F38*F39*10^3</f>
+        <v>1.2339202930818002E-37</v>
+      </c>
+      <c r="E41" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="11">
+        <f>B2/2</f>
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="57">
+        <f>F41*(0.65+1.61*G46^-1.5+2.879*G46^-6)</f>
+        <v>3.4698543663153725</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="57">
+        <f>(26*10^-3*F41)/(F40*B4*(1+(B5/(PI()*B4))^2))</f>
+        <v>4.6273529517455073E-2</v>
+      </c>
+      <c r="G46" s="57">
+        <f>12.97*F41*SQRT(F40)/G2</f>
+        <v>4.2217937014313796</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="57">
+        <f>2*10^-4*(B6*F41^4)/(B3^6*F40^3)*(H43^6/G2^4)</f>
+        <v>2.6560213344101371E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="59">
+        <f>C37+C41+C46+C53</f>
+        <v>0.1368129197947687</v>
+      </c>
+      <c r="G58" s="60"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="61"/>
+      <c r="G59" s="62"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F64" s="55">
+        <v>-20.95647288584</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="57">
+        <f>E3*F64</f>
+        <v>-2.7243414751592003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F66" s="55">
+        <v>29.101311315699999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="57">
+        <f>E3*F66</f>
+        <v>3.7831704710410001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="57">
+        <f>-C65+C67</f>
+        <v>6.5075119462002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E74" s="58">
+        <f>(0.44/C70)*10^12</f>
+        <v>67614167079.158463</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="63"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" s="55">
+        <v>52.139433523069997</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="5:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E83" s="58">
+        <f>((B80+E7-2*E8)/(E7+F58*B7))*B7</f>
+        <v>362.79792840826832</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C42:D44"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:F33"/>
-    <mergeCell ref="G32:G34"/>
+  <mergeCells count="22">
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="F58:G59"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:F15"/>
+    <mergeCell ref="C24:D26"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
